--- a/Code/Results/Cases/Case_4_239/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_239/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.02138810706353</v>
+        <v>1.059692457733099</v>
       </c>
       <c r="D2">
-        <v>1.03271143600922</v>
+        <v>1.0578066871998</v>
       </c>
       <c r="E2">
-        <v>1.029426289604397</v>
+        <v>1.063386412290673</v>
       </c>
       <c r="F2">
-        <v>1.025538125311569</v>
+        <v>1.066211644921897</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054691347654073</v>
+        <v>1.053133242117264</v>
       </c>
       <c r="J2">
-        <v>1.042947394626915</v>
+        <v>1.064677168939965</v>
       </c>
       <c r="K2">
-        <v>1.043733109714208</v>
+        <v>1.060540648049058</v>
       </c>
       <c r="L2">
-        <v>1.040490343947118</v>
+        <v>1.06610519161132</v>
       </c>
       <c r="M2">
-        <v>1.036652779146407</v>
+        <v>1.068922802805314</v>
       </c>
       <c r="N2">
-        <v>1.044428499555024</v>
+        <v>1.066189132640038</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.030193925166034</v>
+        <v>1.061258192075281</v>
       </c>
       <c r="D3">
-        <v>1.039832383433136</v>
+        <v>1.059047221175747</v>
       </c>
       <c r="E3">
-        <v>1.037729126370315</v>
+        <v>1.064903673854067</v>
       </c>
       <c r="F3">
-        <v>1.034760819850977</v>
+        <v>1.067940693955115</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058952651839688</v>
+        <v>1.053768880442332</v>
       </c>
       <c r="J3">
-        <v>1.049893998997399</v>
+        <v>1.065893312102734</v>
       </c>
       <c r="K3">
-        <v>1.04997975881745</v>
+        <v>1.061594008123482</v>
       </c>
       <c r="L3">
-        <v>1.047900984444189</v>
+        <v>1.06743569217258</v>
       </c>
       <c r="M3">
-        <v>1.044967439702029</v>
+        <v>1.07046512228574</v>
       </c>
       <c r="N3">
-        <v>1.0513849689005</v>
+        <v>1.067407002865591</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.035673676952959</v>
+        <v>1.062267621809329</v>
       </c>
       <c r="D4">
-        <v>1.044259961436217</v>
+        <v>1.05984610034646</v>
       </c>
       <c r="E4">
-        <v>1.042900166368165</v>
+        <v>1.065882088920246</v>
       </c>
       <c r="F4">
-        <v>1.040508456615855</v>
+        <v>1.069056383198932</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061587572684025</v>
+        <v>1.054176705916015</v>
       </c>
       <c r="J4">
-        <v>1.054206864564646</v>
+        <v>1.066676150915918</v>
       </c>
       <c r="K4">
-        <v>1.053852015702537</v>
+        <v>1.062271219681235</v>
       </c>
       <c r="L4">
-        <v>1.052506992039643</v>
+        <v>1.068292761771585</v>
       </c>
       <c r="M4">
-        <v>1.050141378355763</v>
+        <v>1.071459528984112</v>
       </c>
       <c r="N4">
-        <v>1.055703959231546</v>
+        <v>1.068190953399683</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.03792871085624</v>
+        <v>1.062691113654707</v>
       </c>
       <c r="D5">
-        <v>1.046081032902297</v>
+        <v>1.060181044143742</v>
       </c>
       <c r="E5">
-        <v>1.045029121891835</v>
+        <v>1.066292625047255</v>
       </c>
       <c r="F5">
-        <v>1.04287575254699</v>
+        <v>1.069524687310988</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062667826992095</v>
+        <v>1.054347330993647</v>
       </c>
       <c r="J5">
-        <v>1.055979284260342</v>
+        <v>1.06700428994103</v>
       </c>
       <c r="K5">
-        <v>1.055441905407763</v>
+        <v>1.062554881278892</v>
       </c>
       <c r="L5">
-        <v>1.054401086291689</v>
+        <v>1.068652164012606</v>
       </c>
       <c r="M5">
-        <v>1.052270508580781</v>
+        <v>1.071876735618198</v>
       </c>
       <c r="N5">
-        <v>1.057478895966509</v>
+        <v>1.06851955841985</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.038304584887946</v>
+        <v>1.062762169061321</v>
       </c>
       <c r="D6">
-        <v>1.046384513722516</v>
+        <v>1.060237229949565</v>
       </c>
       <c r="E6">
-        <v>1.045384035775607</v>
+        <v>1.066361509959568</v>
       </c>
       <c r="F6">
-        <v>1.043270457348479</v>
+        <v>1.069603275176953</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062847645695637</v>
+        <v>1.054375931538193</v>
       </c>
       <c r="J6">
-        <v>1.056274571952531</v>
+        <v>1.067059329604294</v>
       </c>
       <c r="K6">
-        <v>1.05570669732911</v>
+        <v>1.06260244875313</v>
       </c>
       <c r="L6">
-        <v>1.054716715916799</v>
+        <v>1.068712456243309</v>
       </c>
       <c r="M6">
-        <v>1.052625393083125</v>
+        <v>1.071946737492594</v>
       </c>
       <c r="N6">
-        <v>1.05777460300109</v>
+        <v>1.068574676245748</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.035703995554345</v>
+        <v>1.06227328393614</v>
       </c>
       <c r="D7">
-        <v>1.044284449429474</v>
+        <v>1.059850579421864</v>
       </c>
       <c r="E7">
-        <v>1.042928786127678</v>
+        <v>1.065887577607996</v>
       </c>
       <c r="F7">
-        <v>1.040540276559783</v>
+        <v>1.069062643555016</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061602112730845</v>
+        <v>1.05417898904753</v>
       </c>
       <c r="J7">
-        <v>1.05423070411309</v>
+        <v>1.066680539306472</v>
       </c>
       <c r="K7">
-        <v>1.053873405963363</v>
+        <v>1.062275014045354</v>
       </c>
       <c r="L7">
-        <v>1.052532463371659</v>
+        <v>1.068297567679567</v>
       </c>
       <c r="M7">
-        <v>1.050170004436665</v>
+        <v>1.071465107008106</v>
       </c>
       <c r="N7">
-        <v>1.055727832634883</v>
+        <v>1.068195348022255</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.024411541723291</v>
+        <v>1.06022238097189</v>
       </c>
       <c r="D8">
-        <v>1.035157110255801</v>
+        <v>1.058226731435151</v>
       </c>
       <c r="E8">
-        <v>1.032276074858908</v>
+        <v>1.063899880725087</v>
       </c>
       <c r="F8">
-        <v>1.028702887652217</v>
+        <v>1.066796640787877</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056158000666118</v>
+        <v>1.053348782935503</v>
       </c>
       <c r="J8">
-        <v>1.0453345610852</v>
+        <v>1.065089023778132</v>
       </c>
       <c r="K8">
-        <v>1.045881017887968</v>
+        <v>1.060897550244118</v>
       </c>
       <c r="L8">
-        <v>1.043035898595832</v>
+        <v>1.06655564599754</v>
       </c>
       <c r="M8">
-        <v>1.039507604815183</v>
+        <v>1.0694447862943</v>
       </c>
       <c r="N8">
-        <v>1.046819056063491</v>
+        <v>1.066601572359316</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002656187115424</v>
+        <v>1.05657939267026</v>
       </c>
       <c r="D9">
-        <v>1.017546793841684</v>
+        <v>1.055335446361488</v>
       </c>
       <c r="E9">
-        <v>1.0117923302495</v>
+        <v>1.060371001158087</v>
       </c>
       <c r="F9">
-        <v>1.005968408231594</v>
+        <v>1.062779048598814</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045531847576099</v>
+        <v>1.051858914742795</v>
       </c>
       <c r="J9">
-        <v>1.028115495983568</v>
+        <v>1.062252722882769</v>
       </c>
       <c r="K9">
-        <v>1.030361459753788</v>
+        <v>1.058436213214279</v>
       </c>
       <c r="L9">
-        <v>1.024696939116082</v>
+        <v>1.063456074751248</v>
       </c>
       <c r="M9">
-        <v>1.018965388709253</v>
+        <v>1.065856674922897</v>
       </c>
       <c r="N9">
-        <v>1.029575537914361</v>
+        <v>1.063761243591352</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9865971209376089</v>
+        <v>1.054130285210104</v>
       </c>
       <c r="D10">
-        <v>1.004536968273981</v>
+        <v>1.053387102214066</v>
       </c>
       <c r="E10">
-        <v>0.9967048993049165</v>
+        <v>1.057999869157936</v>
       </c>
       <c r="F10">
-        <v>0.9892361849668087</v>
+        <v>1.060083123019009</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037595620058463</v>
+        <v>1.050847099912191</v>
       </c>
       <c r="J10">
-        <v>1.015352784923433</v>
+        <v>1.060339676497451</v>
       </c>
       <c r="K10">
-        <v>1.01882478670084</v>
+        <v>1.056771707652847</v>
       </c>
       <c r="L10">
-        <v>1.011133903773392</v>
+        <v>1.061368663358006</v>
       </c>
       <c r="M10">
-        <v>1.003802541592447</v>
+        <v>1.06344482600753</v>
       </c>
       <c r="N10">
-        <v>1.016794702340617</v>
+        <v>1.061845480460739</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9791876617905971</v>
+        <v>1.053064736586886</v>
       </c>
       <c r="D11">
-        <v>0.9985339716333312</v>
+        <v>1.052538341662403</v>
       </c>
       <c r="E11">
-        <v>0.9897532775485334</v>
+        <v>1.05696855094001</v>
       </c>
       <c r="F11">
-        <v>0.9815281919138946</v>
+        <v>1.058911378095976</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033912600699379</v>
+        <v>1.050404465764967</v>
       </c>
       <c r="J11">
-        <v>1.009452642254402</v>
+        <v>1.059505873531476</v>
       </c>
       <c r="K11">
-        <v>1.013483588160533</v>
+        <v>1.056045198498795</v>
       </c>
       <c r="L11">
-        <v>1.004871054165577</v>
+        <v>1.060459622382502</v>
       </c>
       <c r="M11">
-        <v>0.9968070742811697</v>
+        <v>1.062395572933076</v>
       </c>
       <c r="N11">
-        <v>1.01088618079224</v>
+        <v>1.061010493398913</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9763578134769449</v>
+        <v>1.052668164782617</v>
       </c>
       <c r="D12">
-        <v>0.9962414362904389</v>
+        <v>1.052222291199217</v>
       </c>
       <c r="E12">
-        <v>0.9870998941390943</v>
+        <v>1.05658476519957</v>
       </c>
       <c r="F12">
-        <v>0.9785861584462086</v>
+        <v>1.058475460912176</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03250282983755</v>
+        <v>1.050239364954146</v>
       </c>
       <c r="J12">
-        <v>1.007197586101945</v>
+        <v>1.059195329525716</v>
       </c>
       <c r="K12">
-        <v>1.011441000454228</v>
+        <v>1.055774460358504</v>
       </c>
       <c r="L12">
-        <v>1.002478484436652</v>
+        <v>1.06012117044218</v>
       </c>
       <c r="M12">
-        <v>0.9941354436174542</v>
+        <v>1.062005078620513</v>
       </c>
       <c r="N12">
-        <v>1.008627922201388</v>
+        <v>1.060699508385045</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.97696850626174</v>
+        <v>1.052753266351754</v>
       </c>
       <c r="D13">
-        <v>0.9967361640704754</v>
+        <v>1.052290120765103</v>
       </c>
       <c r="E13">
-        <v>0.9876724296170295</v>
+        <v>1.05666712086442</v>
       </c>
       <c r="F13">
-        <v>0.9792209783444058</v>
+        <v>1.058568997662435</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032807204332405</v>
+        <v>1.050274810861815</v>
       </c>
       <c r="J13">
-        <v>1.007684309226982</v>
+        <v>1.05926198018209</v>
       </c>
       <c r="K13">
-        <v>1.011881917211602</v>
+        <v>1.055832574667641</v>
       </c>
       <c r="L13">
-        <v>1.002994837410708</v>
+        <v>1.060193805700723</v>
       </c>
       <c r="M13">
-        <v>0.9947119871436719</v>
+        <v>1.062088875430505</v>
       </c>
       <c r="N13">
-        <v>1.00911533652909</v>
+        <v>1.060766253692996</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9789553890865794</v>
+        <v>1.053031971846735</v>
       </c>
       <c r="D14">
-        <v>0.9983457969122588</v>
+        <v>1.05251223289058</v>
       </c>
       <c r="E14">
-        <v>0.9895354554442543</v>
+        <v>1.056936841636567</v>
       </c>
       <c r="F14">
-        <v>0.9812866739446438</v>
+        <v>1.058875359007813</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033796950337015</v>
+        <v>1.050390832542783</v>
       </c>
       <c r="J14">
-        <v>1.009267581058737</v>
+        <v>1.059480220936303</v>
       </c>
       <c r="K14">
-        <v>1.013315986564716</v>
+        <v>1.056022837237993</v>
       </c>
       <c r="L14">
-        <v>1.004674685264439</v>
+        <v>1.060431662121246</v>
       </c>
       <c r="M14">
-        <v>0.996587785709624</v>
+        <v>1.062363310057254</v>
       </c>
       <c r="N14">
-        <v>1.010700856788451</v>
+        <v>1.060984804374113</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.980168979465626</v>
+        <v>1.05320358765179</v>
       </c>
       <c r="D15">
-        <v>0.9993289893853364</v>
+        <v>1.05264897930673</v>
       </c>
       <c r="E15">
-        <v>0.9906736097067795</v>
+        <v>1.057102931152692</v>
       </c>
       <c r="F15">
-        <v>0.9825486437606057</v>
+        <v>1.059064027798357</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034401079674377</v>
+        <v>1.050462226054622</v>
       </c>
       <c r="J15">
-        <v>1.010234432017232</v>
+        <v>1.059614575507692</v>
       </c>
       <c r="K15">
-        <v>1.014191573037973</v>
+        <v>1.056139947223006</v>
       </c>
       <c r="L15">
-        <v>1.005700658488646</v>
+        <v>1.060578107673068</v>
       </c>
       <c r="M15">
-        <v>0.9977335403446362</v>
+        <v>1.062532297705354</v>
       </c>
       <c r="N15">
-        <v>1.011669080786206</v>
+        <v>1.061119349744404</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9870785165452102</v>
+        <v>1.054200893830745</v>
       </c>
       <c r="D16">
-        <v>1.004926993867654</v>
+        <v>1.05344332265596</v>
       </c>
       <c r="E16">
-        <v>0.9971567585426276</v>
+        <v>1.058068215957064</v>
       </c>
       <c r="F16">
-        <v>0.9897372255809652</v>
+        <v>1.060160793716725</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037834474723601</v>
+        <v>1.050876380265751</v>
       </c>
       <c r="J16">
-        <v>1.015735888906189</v>
+        <v>1.060394897339709</v>
       </c>
       <c r="K16">
-        <v>1.019171438092741</v>
+        <v>1.056819800987022</v>
       </c>
       <c r="L16">
-        <v>1.011540709734052</v>
+        <v>1.061428882982237</v>
       </c>
       <c r="M16">
-        <v>1.004257052482085</v>
+        <v>1.063514356584504</v>
       </c>
       <c r="N16">
-        <v>1.017178350374971</v>
+        <v>1.061900779722926</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9912847204803273</v>
+        <v>1.054825107879148</v>
       </c>
       <c r="D17">
-        <v>1.008334825083949</v>
+        <v>1.053940213674116</v>
       </c>
       <c r="E17">
-        <v>1.001105970023268</v>
+        <v>1.058672469640804</v>
       </c>
       <c r="F17">
-        <v>0.9941164262655847</v>
+        <v>1.060847576834554</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039919096581478</v>
+        <v>1.051134954078406</v>
       </c>
       <c r="J17">
-        <v>1.019081983483796</v>
+        <v>1.060882905321287</v>
       </c>
       <c r="K17">
-        <v>1.022198275991172</v>
+        <v>1.057244701526882</v>
       </c>
       <c r="L17">
-        <v>1.015094635327892</v>
+        <v>1.061961154520042</v>
       </c>
       <c r="M17">
-        <v>1.008228408316372</v>
+        <v>1.064129050016581</v>
       </c>
       <c r="N17">
-        <v>1.02052919679068</v>
+        <v>1.062389480731813</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9936948557522315</v>
+        <v>1.055188713525416</v>
       </c>
       <c r="D18">
-        <v>1.010287442113347</v>
+        <v>1.054229549300619</v>
       </c>
       <c r="E18">
-        <v>1.003369722834907</v>
+        <v>1.059024477669151</v>
       </c>
       <c r="F18">
-        <v>0.9966268054564849</v>
+        <v>1.061247743414337</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041111589148891</v>
+        <v>1.051285341110977</v>
       </c>
       <c r="J18">
-        <v>1.02099819844883</v>
+        <v>1.061167028139328</v>
       </c>
       <c r="K18">
-        <v>1.023930932584707</v>
+        <v>1.057491983309022</v>
       </c>
       <c r="L18">
-        <v>1.017130542879225</v>
+        <v>1.062271120965229</v>
       </c>
       <c r="M18">
-        <v>1.01050401977453</v>
+        <v>1.064487118098905</v>
       </c>
       <c r="N18">
-        <v>1.022448133000757</v>
+        <v>1.062674007036845</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9945095604882568</v>
+        <v>1.055312611449756</v>
       </c>
       <c r="D19">
-        <v>1.010947475768038</v>
+        <v>1.054328122174262</v>
       </c>
       <c r="E19">
-        <v>1.004135088989116</v>
+        <v>1.059144428687073</v>
       </c>
       <c r="F19">
-        <v>0.9974755848881673</v>
+        <v>1.061384118808734</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041514352046579</v>
+        <v>1.051336545739649</v>
       </c>
       <c r="J19">
-        <v>1.021645756121026</v>
+        <v>1.061263818251643</v>
       </c>
       <c r="K19">
-        <v>1.024516335210015</v>
+        <v>1.057576206197217</v>
       </c>
       <c r="L19">
-        <v>1.017818662671815</v>
+        <v>1.062376727424155</v>
       </c>
       <c r="M19">
-        <v>1.01127325751038</v>
+        <v>1.06460913050541</v>
       </c>
       <c r="N19">
-        <v>1.023096610279124</v>
+        <v>1.062770934602222</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9908379711493499</v>
+        <v>1.054758186209781</v>
       </c>
       <c r="D20">
-        <v>1.007972876794033</v>
+        <v>1.053886953016891</v>
       </c>
       <c r="E20">
-        <v>1.000686424335028</v>
+        <v>1.058607684873639</v>
       </c>
       <c r="F20">
-        <v>0.993651186067799</v>
+        <v>1.060773935334229</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039697891122456</v>
+        <v>1.051107256582822</v>
       </c>
       <c r="J20">
-        <v>1.018726700166232</v>
+        <v>1.060830600989122</v>
       </c>
       <c r="K20">
-        <v>1.021876966697786</v>
+        <v>1.057199171279299</v>
       </c>
       <c r="L20">
-        <v>1.014717214527596</v>
+        <v>1.061904098500703</v>
       </c>
       <c r="M20">
-        <v>1.00780659798298</v>
+        <v>1.064063148198942</v>
       </c>
       <c r="N20">
-        <v>1.020173408930054</v>
+        <v>1.062337102121497</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9783725277354457</v>
+        <v>1.052949921691971</v>
       </c>
       <c r="D21">
-        <v>0.9978735975510064</v>
+        <v>1.052446848138392</v>
       </c>
       <c r="E21">
-        <v>0.9889888825952163</v>
+        <v>1.056857435278316</v>
       </c>
       <c r="F21">
-        <v>0.9806806421354857</v>
+        <v>1.058785162125093</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033506689105229</v>
+        <v>1.05035668608051</v>
       </c>
       <c r="J21">
-        <v>1.008803165336248</v>
+        <v>1.059415977574844</v>
       </c>
       <c r="K21">
-        <v>1.012895367573446</v>
+        <v>1.055966834065514</v>
       </c>
       <c r="L21">
-        <v>1.004181910519966</v>
+        <v>1.06036164136946</v>
       </c>
       <c r="M21">
-        <v>0.9960375083165436</v>
+        <v>1.062282516885988</v>
       </c>
       <c r="N21">
-        <v>1.010235781542366</v>
+        <v>1.060920469779711</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9700798066739742</v>
+        <v>1.05180847437349</v>
       </c>
       <c r="D22">
-        <v>0.9911560116344759</v>
+        <v>1.051536859467953</v>
       </c>
       <c r="E22">
-        <v>0.9812165696071188</v>
+        <v>1.055752877796587</v>
       </c>
       <c r="F22">
-        <v>0.9720626868056834</v>
+        <v>1.057530803609412</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029369532462242</v>
+        <v>1.04988079459499</v>
       </c>
       <c r="J22">
-        <v>1.00219180818467</v>
+        <v>1.05852172377937</v>
       </c>
       <c r="K22">
-        <v>1.006904729428725</v>
+        <v>1.055186914666955</v>
       </c>
       <c r="L22">
-        <v>0.9971695449806256</v>
+        <v>1.059387237629913</v>
       </c>
       <c r="M22">
-        <v>0.9882086738326866</v>
+        <v>1.061158586089626</v>
       </c>
       <c r="N22">
-        <v>1.003615035505299</v>
+        <v>1.060024946041276</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9745226468157664</v>
+        <v>1.052414011690841</v>
       </c>
       <c r="D23">
-        <v>0.9947547920789511</v>
+        <v>1.052019696706629</v>
       </c>
       <c r="E23">
-        <v>0.9853796429034218</v>
+        <v>1.056338819482908</v>
       </c>
       <c r="F23">
-        <v>0.9766787586827279</v>
+        <v>1.058196142527448</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031587712926067</v>
+        <v>1.050133453766644</v>
       </c>
       <c r="J23">
-        <v>1.005734720992794</v>
+        <v>1.058996246935748</v>
       </c>
       <c r="K23">
-        <v>1.010115639285826</v>
+        <v>1.05560085278812</v>
       </c>
       <c r="L23">
-        <v>1.000926730871116</v>
+        <v>1.059904228783472</v>
       </c>
       <c r="M23">
-        <v>0.9924029153658067</v>
+        <v>1.061754823996316</v>
       </c>
       <c r="N23">
-        <v>1.007162979655989</v>
+        <v>1.060500143074965</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9910399709967298</v>
+        <v>1.054788426738663</v>
       </c>
       <c r="D24">
-        <v>1.008136533629184</v>
+        <v>1.053911020736869</v>
       </c>
       <c r="E24">
-        <v>1.000876121219204</v>
+        <v>1.058636959689635</v>
       </c>
       <c r="F24">
-        <v>0.9938615431712586</v>
+        <v>1.060807212063201</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039797916417141</v>
+        <v>1.051119773231875</v>
       </c>
       <c r="J24">
-        <v>1.018887346591768</v>
+        <v>1.06085423668422</v>
       </c>
       <c r="K24">
-        <v>1.022022253554383</v>
+        <v>1.057219746154603</v>
       </c>
       <c r="L24">
-        <v>1.014887868635945</v>
+        <v>1.061929881200081</v>
       </c>
       <c r="M24">
-        <v>1.007997321411534</v>
+        <v>1.064092927852364</v>
       </c>
       <c r="N24">
-        <v>1.02033428349194</v>
+        <v>1.062360771381994</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008529148033398</v>
+        <v>1.057524728024344</v>
       </c>
       <c r="D25">
-        <v>1.022303119605398</v>
+        <v>1.056086527367964</v>
       </c>
       <c r="E25">
-        <v>1.017316959621422</v>
+        <v>1.061286506170715</v>
       </c>
       <c r="F25">
-        <v>1.012097449755688</v>
+        <v>1.063820709301783</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048416089360452</v>
+        <v>1.052247320486008</v>
       </c>
       <c r="J25">
-        <v>1.032772842632273</v>
+        <v>1.06298982706278</v>
       </c>
       <c r="K25">
-        <v>1.034564800207305</v>
+        <v>1.059076637579592</v>
       </c>
       <c r="L25">
-        <v>1.029652270782567</v>
+        <v>1.064261035389568</v>
       </c>
       <c r="M25">
-        <v>1.024510826811822</v>
+        <v>1.066787705255017</v>
       </c>
       <c r="N25">
-        <v>1.034239498529512</v>
+        <v>1.064499394543847</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_239/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_239/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.059692457733099</v>
+        <v>1.021388107063531</v>
       </c>
       <c r="D2">
-        <v>1.0578066871998</v>
+        <v>1.032711436009221</v>
       </c>
       <c r="E2">
-        <v>1.063386412290673</v>
+        <v>1.029426289604399</v>
       </c>
       <c r="F2">
-        <v>1.066211644921897</v>
+        <v>1.025538125311571</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053133242117264</v>
+        <v>1.054691347654074</v>
       </c>
       <c r="J2">
-        <v>1.064677168939965</v>
+        <v>1.042947394626917</v>
       </c>
       <c r="K2">
-        <v>1.060540648049058</v>
+        <v>1.043733109714209</v>
       </c>
       <c r="L2">
-        <v>1.06610519161132</v>
+        <v>1.04049034394712</v>
       </c>
       <c r="M2">
-        <v>1.068922802805314</v>
+        <v>1.036652779146409</v>
       </c>
       <c r="N2">
-        <v>1.066189132640038</v>
+        <v>1.044428499555026</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.061258192075281</v>
+        <v>1.030193925166034</v>
       </c>
       <c r="D3">
-        <v>1.059047221175747</v>
+        <v>1.039832383433135</v>
       </c>
       <c r="E3">
-        <v>1.064903673854067</v>
+        <v>1.037729126370314</v>
       </c>
       <c r="F3">
-        <v>1.067940693955115</v>
+        <v>1.034760819850976</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053768880442332</v>
+        <v>1.058952651839688</v>
       </c>
       <c r="J3">
-        <v>1.065893312102734</v>
+        <v>1.049893998997398</v>
       </c>
       <c r="K3">
-        <v>1.061594008123482</v>
+        <v>1.04997975881745</v>
       </c>
       <c r="L3">
-        <v>1.06743569217258</v>
+        <v>1.047900984444188</v>
       </c>
       <c r="M3">
-        <v>1.07046512228574</v>
+        <v>1.044967439702028</v>
       </c>
       <c r="N3">
-        <v>1.067407002865591</v>
+        <v>1.051384968900499</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.062267621809329</v>
+        <v>1.035673676952956</v>
       </c>
       <c r="D4">
-        <v>1.05984610034646</v>
+        <v>1.044259961436215</v>
       </c>
       <c r="E4">
-        <v>1.065882088920246</v>
+        <v>1.042900166368162</v>
       </c>
       <c r="F4">
-        <v>1.069056383198932</v>
+        <v>1.040508456615852</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054176705916015</v>
+        <v>1.061587572684024</v>
       </c>
       <c r="J4">
-        <v>1.066676150915918</v>
+        <v>1.054206864564644</v>
       </c>
       <c r="K4">
-        <v>1.062271219681235</v>
+        <v>1.053852015702536</v>
       </c>
       <c r="L4">
-        <v>1.068292761771585</v>
+        <v>1.05250699203964</v>
       </c>
       <c r="M4">
-        <v>1.071459528984112</v>
+        <v>1.050141378355761</v>
       </c>
       <c r="N4">
-        <v>1.068190953399683</v>
+        <v>1.055703959231543</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.062691113654707</v>
+        <v>1.03792871085624</v>
       </c>
       <c r="D5">
-        <v>1.060181044143742</v>
+        <v>1.046081032902296</v>
       </c>
       <c r="E5">
-        <v>1.066292625047255</v>
+        <v>1.045029121891835</v>
       </c>
       <c r="F5">
-        <v>1.069524687310988</v>
+        <v>1.04287575254699</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054347330993647</v>
+        <v>1.062667826992094</v>
       </c>
       <c r="J5">
-        <v>1.06700428994103</v>
+        <v>1.055979284260342</v>
       </c>
       <c r="K5">
-        <v>1.062554881278892</v>
+        <v>1.055441905407762</v>
       </c>
       <c r="L5">
-        <v>1.068652164012606</v>
+        <v>1.054401086291688</v>
       </c>
       <c r="M5">
-        <v>1.071876735618198</v>
+        <v>1.052270508580781</v>
       </c>
       <c r="N5">
-        <v>1.06851955841985</v>
+        <v>1.057478895966508</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.062762169061321</v>
+        <v>1.038304584887948</v>
       </c>
       <c r="D6">
-        <v>1.060237229949565</v>
+        <v>1.046384513722518</v>
       </c>
       <c r="E6">
-        <v>1.066361509959568</v>
+        <v>1.04538403577561</v>
       </c>
       <c r="F6">
-        <v>1.069603275176953</v>
+        <v>1.043270457348482</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054375931538193</v>
+        <v>1.062847645695638</v>
       </c>
       <c r="J6">
-        <v>1.067059329604294</v>
+        <v>1.056274571952533</v>
       </c>
       <c r="K6">
-        <v>1.06260244875313</v>
+        <v>1.055706697329112</v>
       </c>
       <c r="L6">
-        <v>1.068712456243309</v>
+        <v>1.054716715916802</v>
       </c>
       <c r="M6">
-        <v>1.071946737492594</v>
+        <v>1.052625393083127</v>
       </c>
       <c r="N6">
-        <v>1.068574676245748</v>
+        <v>1.057774603001093</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.06227328393614</v>
+        <v>1.035703995554343</v>
       </c>
       <c r="D7">
-        <v>1.059850579421864</v>
+        <v>1.044284449429473</v>
       </c>
       <c r="E7">
-        <v>1.065887577607996</v>
+        <v>1.042928786127676</v>
       </c>
       <c r="F7">
-        <v>1.069062643555016</v>
+        <v>1.040540276559782</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05417898904753</v>
+        <v>1.061602112730844</v>
       </c>
       <c r="J7">
-        <v>1.066680539306472</v>
+        <v>1.05423070411309</v>
       </c>
       <c r="K7">
-        <v>1.062275014045354</v>
+        <v>1.053873405963362</v>
       </c>
       <c r="L7">
-        <v>1.068297567679567</v>
+        <v>1.052532463371658</v>
       </c>
       <c r="M7">
-        <v>1.071465107008106</v>
+        <v>1.050170004436664</v>
       </c>
       <c r="N7">
-        <v>1.068195348022255</v>
+        <v>1.055727832634882</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.06022238097189</v>
+        <v>1.02441154172329</v>
       </c>
       <c r="D8">
-        <v>1.058226731435151</v>
+        <v>1.0351571102558</v>
       </c>
       <c r="E8">
-        <v>1.063899880725087</v>
+        <v>1.032276074858908</v>
       </c>
       <c r="F8">
-        <v>1.066796640787877</v>
+        <v>1.028702887652217</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053348782935503</v>
+        <v>1.056158000666117</v>
       </c>
       <c r="J8">
-        <v>1.065089023778132</v>
+        <v>1.045334561085199</v>
       </c>
       <c r="K8">
-        <v>1.060897550244118</v>
+        <v>1.045881017887967</v>
       </c>
       <c r="L8">
-        <v>1.06655564599754</v>
+        <v>1.043035898595832</v>
       </c>
       <c r="M8">
-        <v>1.0694447862943</v>
+        <v>1.039507604815182</v>
       </c>
       <c r="N8">
-        <v>1.066601572359316</v>
+        <v>1.04681905606349</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.05657939267026</v>
+        <v>1.002656187115423</v>
       </c>
       <c r="D9">
-        <v>1.055335446361488</v>
+        <v>1.017546793841684</v>
       </c>
       <c r="E9">
-        <v>1.060371001158087</v>
+        <v>1.011792330249499</v>
       </c>
       <c r="F9">
-        <v>1.062779048598814</v>
+        <v>1.005968408231593</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051858914742795</v>
+        <v>1.045531847576098</v>
       </c>
       <c r="J9">
-        <v>1.062252722882769</v>
+        <v>1.028115495983568</v>
       </c>
       <c r="K9">
-        <v>1.058436213214279</v>
+        <v>1.030361459753787</v>
       </c>
       <c r="L9">
-        <v>1.063456074751248</v>
+        <v>1.024696939116082</v>
       </c>
       <c r="M9">
-        <v>1.065856674922897</v>
+        <v>1.018965388709252</v>
       </c>
       <c r="N9">
-        <v>1.063761243591352</v>
+        <v>1.029575537914361</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.054130285210104</v>
+        <v>0.9865971209376122</v>
       </c>
       <c r="D10">
-        <v>1.053387102214066</v>
+        <v>1.004536968273984</v>
       </c>
       <c r="E10">
-        <v>1.057999869157936</v>
+        <v>0.9967048993049199</v>
       </c>
       <c r="F10">
-        <v>1.060083123019009</v>
+        <v>0.9892361849668113</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050847099912191</v>
+        <v>1.037595620058465</v>
       </c>
       <c r="J10">
-        <v>1.060339676497451</v>
+        <v>1.015352784923437</v>
       </c>
       <c r="K10">
-        <v>1.056771707652847</v>
+        <v>1.018824786700842</v>
       </c>
       <c r="L10">
-        <v>1.061368663358006</v>
+        <v>1.011133903773395</v>
       </c>
       <c r="M10">
-        <v>1.06344482600753</v>
+        <v>1.003802541592449</v>
       </c>
       <c r="N10">
-        <v>1.061845480460739</v>
+        <v>1.01679470234062</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.053064736586886</v>
+        <v>0.9791876617905939</v>
       </c>
       <c r="D11">
-        <v>1.052538341662403</v>
+        <v>0.9985339716333285</v>
       </c>
       <c r="E11">
-        <v>1.05696855094001</v>
+        <v>0.9897532775485303</v>
       </c>
       <c r="F11">
-        <v>1.058911378095976</v>
+        <v>0.9815281919138915</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050404465764967</v>
+        <v>1.033912600699377</v>
       </c>
       <c r="J11">
-        <v>1.059505873531476</v>
+        <v>1.009452642254399</v>
       </c>
       <c r="K11">
-        <v>1.056045198498795</v>
+        <v>1.01348358816053</v>
       </c>
       <c r="L11">
-        <v>1.060459622382502</v>
+        <v>1.004871054165574</v>
       </c>
       <c r="M11">
-        <v>1.062395572933076</v>
+        <v>0.9968070742811667</v>
       </c>
       <c r="N11">
-        <v>1.061010493398913</v>
+        <v>1.010886180792237</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.052668164782617</v>
+        <v>0.9763578134769459</v>
       </c>
       <c r="D12">
-        <v>1.052222291199217</v>
+        <v>0.9962414362904395</v>
       </c>
       <c r="E12">
-        <v>1.05658476519957</v>
+        <v>0.9870998941390954</v>
       </c>
       <c r="F12">
-        <v>1.058475460912176</v>
+        <v>0.9785861584462091</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050239364954146</v>
+        <v>1.03250282983755</v>
       </c>
       <c r="J12">
-        <v>1.059195329525716</v>
+        <v>1.007197586101946</v>
       </c>
       <c r="K12">
-        <v>1.055774460358504</v>
+        <v>1.011441000454229</v>
       </c>
       <c r="L12">
-        <v>1.06012117044218</v>
+        <v>1.002478484436653</v>
       </c>
       <c r="M12">
-        <v>1.062005078620513</v>
+        <v>0.9941354436174545</v>
       </c>
       <c r="N12">
-        <v>1.060699508385045</v>
+        <v>1.008627922201388</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.052753266351754</v>
+        <v>0.9769685062617379</v>
       </c>
       <c r="D13">
-        <v>1.052290120765103</v>
+        <v>0.9967361640704739</v>
       </c>
       <c r="E13">
-        <v>1.05666712086442</v>
+        <v>0.9876724296170272</v>
       </c>
       <c r="F13">
-        <v>1.058568997662435</v>
+        <v>0.979220978344404</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050274810861815</v>
+        <v>1.032807204332404</v>
       </c>
       <c r="J13">
-        <v>1.05926198018209</v>
+        <v>1.00768430922698</v>
       </c>
       <c r="K13">
-        <v>1.055832574667641</v>
+        <v>1.011881917211601</v>
       </c>
       <c r="L13">
-        <v>1.060193805700723</v>
+        <v>1.002994837410706</v>
       </c>
       <c r="M13">
-        <v>1.062088875430505</v>
+        <v>0.9947119871436704</v>
       </c>
       <c r="N13">
-        <v>1.060766253692996</v>
+        <v>1.009115336529089</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.053031971846735</v>
+        <v>0.9789553890865819</v>
       </c>
       <c r="D14">
-        <v>1.05251223289058</v>
+        <v>0.998345796912261</v>
       </c>
       <c r="E14">
-        <v>1.056936841636567</v>
+        <v>0.9895354554442569</v>
       </c>
       <c r="F14">
-        <v>1.058875359007813</v>
+        <v>0.9812866739446462</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050390832542783</v>
+        <v>1.033796950337017</v>
       </c>
       <c r="J14">
-        <v>1.059480220936303</v>
+        <v>1.00926758105874</v>
       </c>
       <c r="K14">
-        <v>1.056022837237993</v>
+        <v>1.013315986564718</v>
       </c>
       <c r="L14">
-        <v>1.060431662121246</v>
+        <v>1.004674685264442</v>
       </c>
       <c r="M14">
-        <v>1.062363310057254</v>
+        <v>0.9965877857096265</v>
       </c>
       <c r="N14">
-        <v>1.060984804374113</v>
+        <v>1.010700856788453</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.05320358765179</v>
+        <v>0.9801689794656254</v>
       </c>
       <c r="D15">
-        <v>1.05264897930673</v>
+        <v>0.9993289893853361</v>
       </c>
       <c r="E15">
-        <v>1.057102931152692</v>
+        <v>0.9906736097067789</v>
       </c>
       <c r="F15">
-        <v>1.059064027798357</v>
+        <v>0.982548643760605</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050462226054622</v>
+        <v>1.034401079674377</v>
       </c>
       <c r="J15">
-        <v>1.059614575507692</v>
+        <v>1.010234432017232</v>
       </c>
       <c r="K15">
-        <v>1.056139947223006</v>
+        <v>1.014191573037973</v>
       </c>
       <c r="L15">
-        <v>1.060578107673068</v>
+        <v>1.005700658488645</v>
       </c>
       <c r="M15">
-        <v>1.062532297705354</v>
+        <v>0.9977335403446355</v>
       </c>
       <c r="N15">
-        <v>1.061119349744404</v>
+        <v>1.011669080786205</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.054200893830745</v>
+        <v>0.9870785165452121</v>
       </c>
       <c r="D16">
-        <v>1.05344332265596</v>
+        <v>1.004926993867656</v>
       </c>
       <c r="E16">
-        <v>1.058068215957064</v>
+        <v>0.9971567585426296</v>
       </c>
       <c r="F16">
-        <v>1.060160793716725</v>
+        <v>0.9897372255809669</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050876380265751</v>
+        <v>1.037834474723603</v>
       </c>
       <c r="J16">
-        <v>1.060394897339709</v>
+        <v>1.015735888906191</v>
       </c>
       <c r="K16">
-        <v>1.056819800987022</v>
+        <v>1.019171438092743</v>
       </c>
       <c r="L16">
-        <v>1.061428882982237</v>
+        <v>1.011540709734054</v>
       </c>
       <c r="M16">
-        <v>1.063514356584504</v>
+        <v>1.004257052482087</v>
       </c>
       <c r="N16">
-        <v>1.061900779722926</v>
+        <v>1.017178350374973</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.054825107879148</v>
+        <v>0.9912847204803298</v>
       </c>
       <c r="D17">
-        <v>1.053940213674116</v>
+        <v>1.008334825083951</v>
       </c>
       <c r="E17">
-        <v>1.058672469640804</v>
+        <v>1.00110597002327</v>
       </c>
       <c r="F17">
-        <v>1.060847576834554</v>
+        <v>0.9941164262655868</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051134954078406</v>
+        <v>1.03991909658148</v>
       </c>
       <c r="J17">
-        <v>1.060882905321287</v>
+        <v>1.019081983483798</v>
       </c>
       <c r="K17">
-        <v>1.057244701526882</v>
+        <v>1.022198275991174</v>
       </c>
       <c r="L17">
-        <v>1.061961154520042</v>
+        <v>1.015094635327894</v>
       </c>
       <c r="M17">
-        <v>1.064129050016581</v>
+        <v>1.008228408316373</v>
       </c>
       <c r="N17">
-        <v>1.062389480731813</v>
+        <v>1.020529196790683</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.055188713525416</v>
+        <v>0.9936948557522297</v>
       </c>
       <c r="D18">
-        <v>1.054229549300619</v>
+        <v>1.010287442113346</v>
       </c>
       <c r="E18">
-        <v>1.059024477669151</v>
+        <v>1.003369722834906</v>
       </c>
       <c r="F18">
-        <v>1.061247743414337</v>
+        <v>0.9966268054564832</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051285341110977</v>
+        <v>1.04111158914889</v>
       </c>
       <c r="J18">
-        <v>1.061167028139328</v>
+        <v>1.020998198448828</v>
       </c>
       <c r="K18">
-        <v>1.057491983309022</v>
+        <v>1.023930932584705</v>
       </c>
       <c r="L18">
-        <v>1.062271120965229</v>
+        <v>1.017130542879223</v>
       </c>
       <c r="M18">
-        <v>1.064487118098905</v>
+        <v>1.010504019774528</v>
       </c>
       <c r="N18">
-        <v>1.062674007036845</v>
+        <v>1.022448133000756</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.055312611449756</v>
+        <v>0.9945095604882572</v>
       </c>
       <c r="D19">
-        <v>1.054328122174262</v>
+        <v>1.010947475768038</v>
       </c>
       <c r="E19">
-        <v>1.059144428687073</v>
+        <v>1.004135088989117</v>
       </c>
       <c r="F19">
-        <v>1.061384118808734</v>
+        <v>0.9974755848881675</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051336545739649</v>
+        <v>1.041514352046579</v>
       </c>
       <c r="J19">
-        <v>1.061263818251643</v>
+        <v>1.021645756121027</v>
       </c>
       <c r="K19">
-        <v>1.057576206197217</v>
+        <v>1.024516335210015</v>
       </c>
       <c r="L19">
-        <v>1.062376727424155</v>
+        <v>1.017818662671815</v>
       </c>
       <c r="M19">
-        <v>1.06460913050541</v>
+        <v>1.01127325751038</v>
       </c>
       <c r="N19">
-        <v>1.062770934602222</v>
+        <v>1.023096610279125</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.054758186209781</v>
+        <v>0.990837971149348</v>
       </c>
       <c r="D20">
-        <v>1.053886953016891</v>
+        <v>1.007972876794031</v>
       </c>
       <c r="E20">
-        <v>1.058607684873639</v>
+        <v>1.000686424335026</v>
       </c>
       <c r="F20">
-        <v>1.060773935334229</v>
+        <v>0.9936511860677973</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051107256582822</v>
+        <v>1.039697891122455</v>
       </c>
       <c r="J20">
-        <v>1.060830600989122</v>
+        <v>1.01872670016623</v>
       </c>
       <c r="K20">
-        <v>1.057199171279299</v>
+        <v>1.021876966697784</v>
       </c>
       <c r="L20">
-        <v>1.061904098500703</v>
+        <v>1.014717214527594</v>
       </c>
       <c r="M20">
-        <v>1.064063148198942</v>
+        <v>1.007806597982978</v>
       </c>
       <c r="N20">
-        <v>1.062337102121497</v>
+        <v>1.020173408930052</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.052949921691971</v>
+        <v>0.9783725277354421</v>
       </c>
       <c r="D21">
-        <v>1.052446848138392</v>
+        <v>0.9978735975510034</v>
       </c>
       <c r="E21">
-        <v>1.056857435278316</v>
+        <v>0.9889888825952131</v>
       </c>
       <c r="F21">
-        <v>1.058785162125093</v>
+        <v>0.9806806421354824</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05035668608051</v>
+        <v>1.033506689105227</v>
       </c>
       <c r="J21">
-        <v>1.059415977574844</v>
+        <v>1.008803165336245</v>
       </c>
       <c r="K21">
-        <v>1.055966834065514</v>
+        <v>1.012895367573443</v>
       </c>
       <c r="L21">
-        <v>1.06036164136946</v>
+        <v>1.004181910519963</v>
       </c>
       <c r="M21">
-        <v>1.062282516885988</v>
+        <v>0.9960375083165406</v>
       </c>
       <c r="N21">
-        <v>1.060920469779711</v>
+        <v>1.010235781542363</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.05180847437349</v>
+        <v>0.9700798066739743</v>
       </c>
       <c r="D22">
-        <v>1.051536859467953</v>
+        <v>0.9911560116344756</v>
       </c>
       <c r="E22">
-        <v>1.055752877796587</v>
+        <v>0.9812165696071187</v>
       </c>
       <c r="F22">
-        <v>1.057530803609412</v>
+        <v>0.9720626868056838</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04988079459499</v>
+        <v>1.029369532462241</v>
       </c>
       <c r="J22">
-        <v>1.05852172377937</v>
+        <v>1.00219180818467</v>
       </c>
       <c r="K22">
-        <v>1.055186914666955</v>
+        <v>1.006904729428725</v>
       </c>
       <c r="L22">
-        <v>1.059387237629913</v>
+        <v>0.9971695449806258</v>
       </c>
       <c r="M22">
-        <v>1.061158586089626</v>
+        <v>0.9882086738326871</v>
       </c>
       <c r="N22">
-        <v>1.060024946041276</v>
+        <v>1.003615035505299</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.052414011690841</v>
+        <v>0.9745226468157625</v>
       </c>
       <c r="D23">
-        <v>1.052019696706629</v>
+        <v>0.994754792078948</v>
       </c>
       <c r="E23">
-        <v>1.056338819482908</v>
+        <v>0.9853796429034182</v>
       </c>
       <c r="F23">
-        <v>1.058196142527448</v>
+        <v>0.9766787586827246</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050133453766644</v>
+        <v>1.031587712926065</v>
       </c>
       <c r="J23">
-        <v>1.058996246935748</v>
+        <v>1.005734720992791</v>
       </c>
       <c r="K23">
-        <v>1.05560085278812</v>
+        <v>1.010115639285823</v>
       </c>
       <c r="L23">
-        <v>1.059904228783472</v>
+        <v>1.000926730871112</v>
       </c>
       <c r="M23">
-        <v>1.061754823996316</v>
+        <v>0.9924029153658035</v>
       </c>
       <c r="N23">
-        <v>1.060500143074965</v>
+        <v>1.007162979655985</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.054788426738663</v>
+        <v>0.9910399709967288</v>
       </c>
       <c r="D24">
-        <v>1.053911020736869</v>
+        <v>1.008136533629183</v>
       </c>
       <c r="E24">
-        <v>1.058636959689635</v>
+        <v>1.000876121219203</v>
       </c>
       <c r="F24">
-        <v>1.060807212063201</v>
+        <v>0.9938615431712579</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051119773231875</v>
+        <v>1.03979791641714</v>
       </c>
       <c r="J24">
-        <v>1.06085423668422</v>
+        <v>1.018887346591767</v>
       </c>
       <c r="K24">
-        <v>1.057219746154603</v>
+        <v>1.022022253554382</v>
       </c>
       <c r="L24">
-        <v>1.061929881200081</v>
+        <v>1.014887868635945</v>
       </c>
       <c r="M24">
-        <v>1.064092927852364</v>
+        <v>1.007997321411533</v>
       </c>
       <c r="N24">
-        <v>1.062360771381994</v>
+        <v>1.02033428349194</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.057524728024344</v>
+        <v>1.008529148033396</v>
       </c>
       <c r="D25">
-        <v>1.056086527367964</v>
+        <v>1.022303119605397</v>
       </c>
       <c r="E25">
-        <v>1.061286506170715</v>
+        <v>1.017316959621421</v>
       </c>
       <c r="F25">
-        <v>1.063820709301783</v>
+        <v>1.012097449755687</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052247320486008</v>
+        <v>1.048416089360452</v>
       </c>
       <c r="J25">
-        <v>1.06298982706278</v>
+        <v>1.032772842632272</v>
       </c>
       <c r="K25">
-        <v>1.059076637579592</v>
+        <v>1.034564800207304</v>
       </c>
       <c r="L25">
-        <v>1.064261035389568</v>
+        <v>1.029652270782566</v>
       </c>
       <c r="M25">
-        <v>1.066787705255017</v>
+        <v>1.024510826811821</v>
       </c>
       <c r="N25">
-        <v>1.064499394543847</v>
+        <v>1.03423949852951</v>
       </c>
     </row>
   </sheetData>
